--- a/Notes & Figures/Results.xlsx
+++ b/Notes & Figures/Results.xlsx
@@ -9,12 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8808" windowHeight="6984" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8808" windowHeight="6984" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Predilection PERMANOVA" sheetId="1" r:id="rId1"/>
     <sheet name="predilection adonis2" sheetId="2" r:id="rId2"/>
     <sheet name="predilection betadisper" sheetId="3" r:id="rId3"/>
+    <sheet name="sex_betadsisper" sheetId="4" r:id="rId4"/>
+    <sheet name="sex_adonis2" sheetId="5" r:id="rId5"/>
+    <sheet name="stage betadisper" sheetId="6" r:id="rId6"/>
+    <sheet name="stage adonis2" sheetId="7" r:id="rId7"/>
+    <sheet name="Predilection RA" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>pairs</t>
   </si>
@@ -128,14 +135,115 @@
   </si>
   <si>
     <t>P value</t>
+  </si>
+  <si>
+    <t>Sum Sq</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Life_stage</t>
+  </si>
+  <si>
+    <t>Belly</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species         </t>
+  </si>
+  <si>
+    <t>A. coharenses</t>
+  </si>
+  <si>
+    <t>A. variegatum</t>
+  </si>
+  <si>
+    <t>B. annulatus</t>
+  </si>
+  <si>
+    <t>B. decoloratus</t>
+  </si>
+  <si>
+    <t>B. geigyi</t>
+  </si>
+  <si>
+    <t>Boophilus sp.</t>
+  </si>
+  <si>
+    <t>H. laechi</t>
+  </si>
+  <si>
+    <t>R. gulhoni</t>
+  </si>
+  <si>
+    <t>R. lunulatus</t>
+  </si>
+  <si>
+    <t>R. muhsame</t>
+  </si>
+  <si>
+    <t>R. quilhoni</t>
+  </si>
+  <si>
+    <t>R. sanguineus</t>
+  </si>
+  <si>
+    <t>R. senegalensis</t>
+  </si>
+  <si>
+    <t>R. fanguineus</t>
+  </si>
+  <si>
+    <t>R. gemma</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Chao 2</t>
+  </si>
+  <si>
+    <t>Jacknife 2</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Std.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,8 +271,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +290,1665 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Predilection RA'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Belly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Predilection RA'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A. coharenses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boophilus sp.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H. laechi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. gulhoni</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. muhsame</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. quilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R. fanguineus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R. gemma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Predilection RA'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E5A-4ED0-BFC0-C70C6605A247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Predilection RA'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Head</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Predilection RA'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A. coharenses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boophilus sp.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H. laechi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. gulhoni</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. muhsame</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. quilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R. fanguineus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R. gemma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Predilection RA'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E5A-4ED0-BFC0-C70C6605A247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Predilection RA'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Predilection RA'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A. coharenses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boophilus sp.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H. laechi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. gulhoni</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. muhsame</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. quilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R. fanguineus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R. gemma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Predilection RA'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E5A-4ED0-BFC0-C70C6605A247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Predilection RA'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neck</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Predilection RA'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A. coharenses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boophilus sp.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H. laechi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. gulhoni</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. muhsame</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. quilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R. fanguineus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R. gemma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Predilection RA'!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E5A-4ED0-BFC0-C70C6605A247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Predilection RA'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shoulder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Predilection RA'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A. coharenses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boophilus sp.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H. laechi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. gulhoni</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. muhsame</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. quilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R. fanguineus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R. gemma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Predilection RA'!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E5A-4ED0-BFC0-C70C6605A247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Predilection RA'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Predilection RA'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A. coharenses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A. variegatum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B. annulatus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B. decoloratus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B. geigyi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boophilus sp.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H. laechi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R. gulhoni</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R. lunulatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R. muhsame</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>R. quilhoni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>R. sanguineus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R. senegalensis</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R. fanguineus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>R. gemma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Predilection RA'!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4E5A-4ED0-BFC0-C70C6605A247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="24"/>
+        <c:overlap val="100"/>
+        <c:axId val="1877708223"/>
+        <c:axId val="1877706559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1877708223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1877706559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1877706559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1877708223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8790741627840637"/>
+          <c:y val="0.23689656882931848"/>
+          <c:w val="0.10723468594203503"/>
+          <c:h val="0.3736188511491414"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120595</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138044</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>102759</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="396241"/>
+          <a:ext cx="4400439" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,6 +2599,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M3:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>15.98</v>
+      </c>
+      <c r="O5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6">
+        <v>18.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
@@ -914,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -974,4 +2797,1693 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.77549000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.77549000000000001</v>
+      </c>
+      <c r="E2">
+        <v>30.623000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.8690000000000001E-7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>3.0388299999999999</v>
+      </c>
+      <c r="D3">
+        <v>2.5319999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6.8570000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.18939</v>
+      </c>
+      <c r="E2">
+        <v>28.036000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>29.347000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.81061000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>36.204000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2.93E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.9295999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.33679999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>3.3045</v>
+      </c>
+      <c r="D3">
+        <v>3.1470999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5.0711000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.1966</v>
+      </c>
+      <c r="E2">
+        <v>25.693999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>20.723400000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.8034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <v>25.7944</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>213</v>
+      </c>
+      <c r="C4">
+        <v>133</v>
+      </c>
+      <c r="D4">
+        <v>175</v>
+      </c>
+      <c r="E4">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>158</v>
+      </c>
+      <c r="H4">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>432</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:H17" si="0">SUM(C2:C16)</f>
+        <v>356</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>417</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1930</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.23</v>
+      </c>
+      <c r="C2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.48</v>
+      </c>
+      <c r="E2">
+        <v>0.71</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.47</v>
+      </c>
+      <c r="J2">
+        <f>ROUND(((B2/B$17)*100),2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:P2" si="0">ROUND(((C2/C$17)*100),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>1.62</v>
+      </c>
+      <c r="C3">
+        <v>1.69</v>
+      </c>
+      <c r="D3">
+        <v>3.6</v>
+      </c>
+      <c r="E3">
+        <v>1.42</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H3">
+        <v>2.44</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="1">ROUND(((B3/B$17)*100),2)</f>
+        <v>1.62</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="2">ROUND(((C3/C$17)*100),2)</f>
+        <v>1.69</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L17" si="3">ROUND(((D3/D$17)*100),2)</f>
+        <v>3.6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="4">ROUND(((E3/E$17)*100),2)</f>
+        <v>1.42</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N17" si="5">ROUND(((F3/F$17)*100),2)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O17" si="6">ROUND(((G3/G$17)*100),2)</f>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P17" si="7">ROUND(((H3/H$17)*100),2)</f>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>49.31</v>
+      </c>
+      <c r="C4">
+        <v>37.36</v>
+      </c>
+      <c r="D4">
+        <v>41.97</v>
+      </c>
+      <c r="E4">
+        <v>41.84</v>
+      </c>
+      <c r="F4">
+        <v>21.21</v>
+      </c>
+      <c r="G4">
+        <v>45.93</v>
+      </c>
+      <c r="H4">
+        <v>42.38</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>49.31</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>37.36</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>41.97</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>41.84</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>21.21</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
+        <v>45.93</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>42.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>30.32</v>
+      </c>
+      <c r="C5">
+        <v>28.09</v>
+      </c>
+      <c r="D5">
+        <v>33.57</v>
+      </c>
+      <c r="E5">
+        <v>25.89</v>
+      </c>
+      <c r="F5">
+        <v>44.44</v>
+      </c>
+      <c r="G5">
+        <v>22.97</v>
+      </c>
+      <c r="H5">
+        <v>29.38</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>30.32</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>28.09</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>33.57</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>25.89</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>44.44</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>22.97</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>17.36</v>
+      </c>
+      <c r="C6">
+        <v>20.79</v>
+      </c>
+      <c r="D6">
+        <v>19.18</v>
+      </c>
+      <c r="E6">
+        <v>27.3</v>
+      </c>
+      <c r="F6">
+        <v>28.28</v>
+      </c>
+      <c r="G6">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="H6">
+        <v>20.93</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>17.36</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>20.79</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>19.18</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>27.3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>28.28</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>20.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.87</v>
+      </c>
+      <c r="H7">
+        <v>0.16</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>0.87</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.16</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3.09</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1.06</v>
+      </c>
+      <c r="F9">
+        <v>2.02</v>
+      </c>
+      <c r="G9">
+        <v>0.87</v>
+      </c>
+      <c r="H9">
+        <v>0.98</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>3.09</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>1.06</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>2.02</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>0.87</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>0.46</v>
+      </c>
+      <c r="C10">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.96</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4.04</v>
+      </c>
+      <c r="G10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H10">
+        <v>1.35</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>4.04</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>0.23</v>
+      </c>
+      <c r="C11">
+        <v>1.4</v>
+      </c>
+      <c r="D11">
+        <v>0.24</v>
+      </c>
+      <c r="E11">
+        <v>0.35</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.52</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3.09</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1.06</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.73</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>3.09</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>1.06</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>0.23</v>
+      </c>
+      <c r="C14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.35</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H14">
+        <v>0.31</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>0.23</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notes & Figures/Results.xlsx
+++ b/Notes & Figures/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8808" windowHeight="6984" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8808" windowHeight="6984" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Predilection PERMANOVA" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -337,6 +338,133 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Predilection RA'!$A$2:$A$16</c:f>
@@ -477,6 +605,88 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Predilection RA'!$A$2:$A$16</c:f>
@@ -614,6 +824,157 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Predilection RA'!$A$2:$A$16</c:f>
@@ -751,6 +1112,133 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Predilection RA'!$A$2:$A$16</c:f>
@@ -888,6 +1376,181 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Predilection RA'!$A$2:$A$16</c:f>
@@ -1025,6 +1688,100 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-1D8C-49EE-A626-6A0F2007EC8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Predilection RA'!$A$2:$A$16</c:f>
@@ -1176,7 +1933,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1209,6 +1966,69 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Abundance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2709055201831305E-2"/>
+              <c:y val="0.29983641804921984"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1259,8 +2079,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8790741627840637"/>
-          <c:y val="0.23689656882931848"/>
+          <c:x val="0.88754687714996938"/>
+          <c:y val="0.23689659180056369"/>
           <c:w val="0.10723468594203503"/>
           <c:h val="0.3736188511491414"/>
         </c:manualLayout>
@@ -1878,13 +2698,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>455875</xdr:colOff>
+      <xdr:colOff>455874</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>11044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>120595</xdr:colOff>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>138044</xdr:rowOff>
     </xdr:to>
@@ -2603,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M3:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3104,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3569,8 +4389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="I1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
